--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>walk_blaster_stop</t>
+  </si>
+  <si>
+    <t>upward_attack_from_the_spot</t>
+  </si>
+  <si>
+    <t>downward_attack_from_the_spot</t>
+  </si>
+  <si>
+    <t>attack_in_motion</t>
   </si>
 </sst>
 </file>
@@ -557,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -617,6 +626,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -914,14 +925,14 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1009,22 +1020,28 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -141,13 +141,40 @@
     <t>walk_blaster_stop</t>
   </si>
   <si>
-    <t>upward_attack_from_the_spot</t>
-  </si>
-  <si>
-    <t>downward_attack_from_the_spot</t>
-  </si>
-  <si>
     <t>attack_in_motion</t>
+  </si>
+  <si>
+    <t>death_from_a_lightsword_head</t>
+  </si>
+  <si>
+    <t>death_from_a_lightsword_body</t>
+  </si>
+  <si>
+    <t>death_from_a_lightsword_legs</t>
+  </si>
+  <si>
+    <t>death_from_a_pressing_upward</t>
+  </si>
+  <si>
+    <t>death_from_a_pressing_downward</t>
+  </si>
+  <si>
+    <t>death_from_a_push_upward</t>
+  </si>
+  <si>
+    <t>death_from_a_push_downward</t>
+  </si>
+  <si>
+    <t>death_from_a_blaster_head</t>
+  </si>
+  <si>
+    <t>death_from_a_blaster_closure</t>
+  </si>
+  <si>
+    <t>attack_from_the_spot_upward</t>
+  </si>
+  <si>
+    <t>attack_from_the_spot_downward</t>
   </si>
 </sst>
 </file>
@@ -924,14 +951,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1021,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -1030,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1039,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="37"/>
     </row>
@@ -1061,21 +1088,27 @@
       <c r="A15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
@@ -1089,14 +1122,18 @@
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1">
@@ -1110,14 +1147,18 @@
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1">
@@ -1131,14 +1172,18 @@
       <c r="A25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>attack_from_the_spot_downward</t>
+  </si>
+  <si>
+    <t>добавить эффекты искр и замыкания</t>
   </si>
 </sst>
 </file>
@@ -593,17 +596,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -655,6 +654,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -951,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,40 +967,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1004,7 +1008,7 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="4"/>
@@ -1013,41 +1017,41 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="4"/>
@@ -1056,42 +1060,42 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
@@ -1103,110 +1107,112 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="45" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="4"/>
@@ -1215,10 +1221,10 @@
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -596,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -654,11 +654,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -955,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -970,10 +971,10 @@
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -1179,7 +1180,7 @@
       <c r="B25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1187,10 +1188,12 @@
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="46" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27" s="11" t="s">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -178,13 +178,25 @@
   </si>
   <si>
     <t>добавить эффекты искр и замыкания</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> от гранаты:</t>
+  </si>
+  <si>
+    <t>граната</t>
+  </si>
+  <si>
+    <t>death_from_a_grenade</t>
+  </si>
+  <si>
+    <t>добавить эффект электрических разрядов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +243,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -287,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -592,11 +612,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -641,8 +672,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -655,11 +684,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -954,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,10 +1031,10 @@
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1009,7 +1042,7 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="4"/>
@@ -1018,7 +1051,7 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="4"/>
@@ -1027,10 +1060,10 @@
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1">
       <c r="A8" s="11" t="s">
@@ -1043,16 +1076,16 @@
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="4"/>
@@ -1061,7 +1094,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="4"/>
@@ -1070,10 +1103,10 @@
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
@@ -1107,7 +1140,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1116,14 +1149,14 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1165,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -1141,14 +1174,14 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1156,8 +1189,9 @@
         <v>47</v>
       </c>
       <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
@@ -1166,68 +1200,86 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B30" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="39"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="C30" s="37"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="36"/>
+      <c r="C32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -162,9 +162,6 @@
     <t>death_from_a_push_upward</t>
   </si>
   <si>
-    <t>death_from_a_push_downward</t>
-  </si>
-  <si>
     <t>death_from_a_blaster_head</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>добавить эффект электрических разрядов</t>
+  </si>
+  <si>
+    <t>death_from_a_push_sideways</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +306,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -627,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -686,13 +692,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -990,7 +997,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,10 +1011,10 @@
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -1086,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -1095,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1189,16 +1196,18 @@
         <v>47</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="44"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="B23" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="29" t="s">
@@ -1212,10 +1221,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
@@ -1223,28 +1232,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="C28" s="45" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>death_from_a_push_sideways</t>
+  </si>
+  <si>
+    <t>добавить эффекты замыкания</t>
   </si>
 </sst>
 </file>
@@ -695,11 +698,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1011,10 +1014,10 @@
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -1192,10 +1195,12 @@
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="F22" s="44"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1">
@@ -1205,7 +1210,7 @@
       <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="47" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Дроид штурмовик</t>
   </si>
@@ -156,9 +156,6 @@
     <t>death_from_a_pressing_upward</t>
   </si>
   <si>
-    <t>death_from_a_pressing_downward</t>
-  </si>
-  <si>
     <t>death_from_a_push_upward</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>добавить эффекты замыкания</t>
+  </si>
+  <si>
+    <t>death_from_a_pressing_sideways</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -1105,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1170,17 +1170,19 @@
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="36" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C20" s="8"/>
     </row>
@@ -1196,10 +1198,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="44"/>
     </row>
@@ -1208,10 +1210,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
@@ -1226,10 +1228,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
@@ -1237,28 +1239,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="C28" s="45" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1">
